--- a/biology/Botanique/Marge_(champignon)/Marge_(champignon).xlsx
+++ b/biology/Botanique/Marge_(champignon)/Marge_(champignon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les champignons basidiomycètes, la marge désigne le bord du chapeau. 
 Sa couleur, éventuellement différente (plus claire ou plus foncée par exemple) de celle de l'hyménophore et du centre de la cuticule, et surtout son aspect, sont d'importants caractères de détermination des champignons. On classe les marges selon leur aspect, ainsi on trouve une marge striée chez certaines amanites, appendiculée chez les bolets ou ondulée chez les tricholomes.
@@ -512,7 +524,9 @@
           <t>Forme générale de la marge</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La marge peut être droite, incurvée, infléchie, arrondie, ou enroulée vers la face inférieure (hyménium) du chapeau, ou, à l'inverse, récurvée, relevée, réfléchie ou révolutée vers le haut.
 La forme de la marge peut évoluer suivant le stade de développement du champignon : chez certains Coprinus, la marge infléchie à arrondie à l'état jeune devient révolutée chez les spécimens plus âgés ; chez les Cortinarius, la marge enroulée devient révolutée par temps sec.
@@ -561,15 +575,55 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect de la cuticule à la marge du chapeau
-En périphérie du chapeau, la cuticule peut être lisse, striée, costulée, le cas où les lames correspondent à des sillons en creux, comme les cannelures de colonnes grecques, dont les arêtes sont en relief  ou encore cannelée.
+          <t>Aspect de la cuticule à la marge du chapeau</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En périphérie du chapeau, la cuticule peut être lisse, striée, costulée, le cas où les lames correspondent à des sillons en creux, comme les cannelures de colonnes grecques, dont les arêtes sont en relief  ou encore cannelée.
 			Marge striée
 			Amanita caesarea
 			Marge cannelée
 			Clitocibe inornata
 			Cuticule pectinée et marge canneléeMycena rubromarginata
-Ornementation de la marge
-Sur le bord du chapeau, la marge peut être lisse, appendiculée, ondulée, serrulée (en dents de scie) ou pectinée (en dents de peigne)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marge_(champignon)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marge_(champignon)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Autres caractéristiques de la marge</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ornementation de la marge</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur le bord du chapeau, la marge peut être lisse, appendiculée, ondulée, serrulée (en dents de scie) ou pectinée (en dents de peigne)
 			Marge appendiculée
 			Boletus appendiculatus
 			Conocybe apala (en)
@@ -577,8 +631,43 @@
 			Tricholoma sp.
 			Marge serruléeCystoderma amianthinum
 			Marge fortement serruléeLepiota magnispora
-Couleur de la marge
-La marge est dite concolore lorsqu'elle est de la même couleur que la partie centrale de la cuticule. Le chapeau est bicolore lorsque la marge est d'une couleur différente ; ce caractère typique du genre Amanita s'observe aussi chez d'autres genres, mais peut disparaître chez les spécimens plus âgés comme chez Kuehneromyces mutabilis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marge_(champignon)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marge_(champignon)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Autres caractéristiques de la marge</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Couleur de la marge</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La marge est dite concolore lorsqu'elle est de la même couleur que la partie centrale de la cuticule. Le chapeau est bicolore lorsque la marge est d'une couleur différente ; ce caractère typique du genre Amanita s'observe aussi chez d'autres genres, mais peut disparaître chez les spécimens plus âgés comme chez Kuehneromyces mutabilis.
 			Marge concoloreLepista nuda
 			Chapeau bicoloreAmanita caesarea
 			Chapeau bicoloreKuehneromyces mutabilis (spécimens jeunes)
